--- a/public/export.xlsx
+++ b/public/export.xlsx
@@ -146,69 +146,69 @@
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>Погашение</t>
+          <t>Частичное погашение</t>
         </is>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>226747</t>
+          <t>232289</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>901018302431</t>
+          <t>911013399012</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>040041330</t>
+          <t>044850404</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>Есенаманов Артык Демсинович</t>
+          <t>Нуретдинов Родион Рафикович</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>77014185765</t>
+          <t>77787681467</t>
         </is>
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G2" s="2" t="inlineStr">
         <is>
-          <t>30000</t>
+          <t>35000</t>
         </is>
       </c>
       <c r="H2" s="2" t="inlineStr">
         <is>
-          <t>129</t>
+          <t>70</t>
         </is>
       </c>
       <c r="I2" s="2" t="inlineStr">
         <is>
-          <t>30000</t>
+          <t>35000</t>
         </is>
       </c>
       <c r="J2" s="2" t="inlineStr">
         <is>
-          <t>9000</t>
+          <t>10500</t>
         </is>
       </c>
       <c r="K2" s="2" t="inlineStr">
         <is>
-          <t>16650</t>
+          <t>20125</t>
         </is>
       </c>
       <c r="L2" s="2" t="inlineStr">
         <is>
-          <t>55650</t>
+          <t>65625</t>
         </is>
       </c>
       <c r="M2" s="2" t="inlineStr">
@@ -218,89 +218,17 @@
       </c>
       <c r="N2" s="2" t="inlineStr">
         <is>
-          <t>59817</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
-      <c r="A3" s="2" t="inlineStr">
-        <is>
-          <t>212997</t>
-        </is>
-      </c>
-      <c r="B3" s="2" t="inlineStr">
-        <is>
-          <t>580607402180</t>
-        </is>
-      </c>
-      <c r="C3" s="2" t="inlineStr">
-        <is>
-          <t>014608370</t>
-        </is>
-      </c>
-      <c r="D3" s="2" t="inlineStr">
-        <is>
-          <t>Сатамбаева Бахтикуль </t>
-        </is>
-      </c>
-      <c r="E3" s="2" t="inlineStr">
-        <is>
-          <t>77753246063</t>
-        </is>
-      </c>
-      <c r="F3" s="2" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="G3" s="2" t="inlineStr">
-        <is>
-          <t>25000</t>
-        </is>
-      </c>
-      <c r="H3" s="2" t="inlineStr">
-        <is>
-          <t>129</t>
-        </is>
-      </c>
-      <c r="I3" s="2" t="inlineStr">
-        <is>
-          <t>7426.95</t>
-        </is>
-      </c>
-      <c r="J3" s="2" t="inlineStr">
+          <t>69792</t>
+        </is>
+      </c>
+      <c r="O2" s="2" t="inlineStr">
+        <is>
+          <t>1740</t>
+        </is>
+      </c>
+      <c r="P2" s="2" t="inlineStr">
         <is>
           <t>0</t>
-        </is>
-      </c>
-      <c r="K3" s="2" t="inlineStr">
-        <is>
-          <t>3304.57</t>
-        </is>
-      </c>
-      <c r="L3" s="2" t="inlineStr">
-        <is>
-          <t>10731.52</t>
-        </is>
-      </c>
-      <c r="M3" s="2" t="inlineStr">
-        <is>
-          <t>4167</t>
-        </is>
-      </c>
-      <c r="N3" s="2" t="inlineStr">
-        <is>
-          <t>14898.52</t>
-        </is>
-      </c>
-      <c r="O3" s="2" t="inlineStr">
-        <is>
-          <t>1740</t>
-        </is>
-      </c>
-      <c r="P3" s="2" t="inlineStr">
-        <is>
-          <t>31762</t>
         </is>
       </c>
     </row>
